--- a/WebDataExtraction/OutPut/Cameras.xlsx
+++ b/WebDataExtraction/OutPut/Cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hari.krishnamorri\Desktop\test\WebDataExtractionPOC_BOT4\WebDataExtraction\OutPut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533DC809-E1D3-46D1-8FFA-7795E244367A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FEE456-F4B1-4FF7-A9C0-F2C36AF76C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>ProductName</t>
   </si>
@@ -40,12 +40,6 @@
 .</t>
   </si>
   <si>
-    <t>4.1 out of 5 stars</t>
-  </si>
-  <si>
-    <t>1080P Full HD Webcam, Streaming Web Camera with Microphones, Webcam for Gaming Conferencing &amp; Working, Laptop or Desktop PC, USB Computer Camera for Mac Xbox YouTube Skype etc</t>
-  </si>
-  <si>
     <t>19
 .</t>
   </si>
@@ -70,9 +64,6 @@
     <t>4.8 out of 5 stars</t>
   </si>
   <si>
-    <t>Digital Camera 2.7 Inch LCD Rechargeable HD Digital Camera Compact Camera Pocket Digital Cameras 30 Mega Pixels with 8X Zoom for Adult Seniors Students Kids</t>
-  </si>
-  <si>
     <t>42
 .</t>
   </si>
@@ -120,13 +111,6 @@
     <t>Webcam with Microphone IYUT HD Webcam 1080P with Privacy Shutter and Tripod Stand Pro Streaming Web Camera USB Computer Camera PC Mac Laptop Desktop Video Calling Conferencing Recording</t>
   </si>
   <si>
-    <t>3.8 out of 5 stars</t>
-  </si>
-  <si>
-    <t>99
-.</t>
-  </si>
-  <si>
     <t>119
 .</t>
   </si>
@@ -134,32 +118,12 @@
     <t>4.7 out of 5 stars</t>
   </si>
   <si>
-    <t>Digital Camera Vlogging Camera 2.7K 30MP Ultra HD Camera Compact Camera 4X Digital Zoom Retractable Flashlight Video Camera with 3.0 Inch Flip Screen with 32GB Micro SD Card and 2 Batteries</t>
-  </si>
-  <si>
-    <t>Canon EOS 850D DSLR Camera w/Canon EF-S 18-55mm F/4-5.6 is STM Lens + Pixibytes Advanced Bundle</t>
-  </si>
-  <si>
-    <t>850
-.</t>
-  </si>
-  <si>
-    <t>4K Video Camera Camcorder Digital YouTube Vlogging Camera Recorder UHD 30MP 3 Inch Touch Screen 18X Camcorder with Microphone,2 Batteries</t>
-  </si>
-  <si>
     <t>Webcam HD 1080p-Streaming Webcam with Privacy Cover for Desktop Computer PC,100° Wide-Angle View with Stereo Microphone, USB Webcam Plug and Play,Low-Light Correction and Fixed Focus Computer Camera</t>
   </si>
   <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>Digital Camera,30MP Compact Camera,2.7 inch Pocket Camera,Rechargeable Small Digital Camera for Kids,Students,School,Children,Photography with 8X Zoom (32GB SD Card Included)</t>
-  </si>
-  <si>
-    <t>45
-.</t>
-  </si>
-  <si>
     <t>Webcam with Microphone, Wandwoo 1080P USB 2.0 Desktop Laptop Computer Web Camera with Auto Light Correction, Plug and Play, for Windows Mac OS, Video Conference, Live Streaming, Gaming, Online Courses</t>
   </si>
   <si>
@@ -180,14 +144,56 @@
 .</t>
   </si>
   <si>
-    <t>Webcam with Microphone 1080P HD Live Streaming Web Camera for Desktop USB Plug and Play with 90-Degree Wide Angle Microphone for Video Conference Recording Gaming Video Calling</t>
-  </si>
-  <si>
     <t>25
 .</t>
   </si>
   <si>
-    <t>1080P Webcam with Microphone, Wandwoo Plug and Play USB Webcam with Cover for Windows PC Desktop Laptop, Streaming Web Camera with Wide Angle for Video Call Online Courses Conference Recording Gaming</t>
+    <t>Video Camera Camcorder 4K 30MP Digital Camcorder Camera with Microphone Ultra HD Vlogging Camera with Remote Control,3 in Touch Screen</t>
+  </si>
+  <si>
+    <t>Webcam with Microphone,UNZANO Full HD 1080P Webcam,Web Camera USB Desktop Laptop Camera,USB Plug and Play Web Cam,for PC Computer Mac Zoom Skype Meeting FaceTime Video Calling Conferencing Games</t>
+  </si>
+  <si>
+    <t>AKASO Brave 7 LE 4K30FPS 20MP WiFi Action Camera with Touch Screen Vlog Camera EIS 2.0 Remote Control 131 Feet Underwater Camera with 2X 1350mAh Batteries</t>
+  </si>
+  <si>
+    <t>4.4 out of 5 stars</t>
+  </si>
+  <si>
+    <t>Webcam Camera Cover Slide 0.02-Inch Ultra-Thin Cute Panda Camera Cover for MacBook, iMac, Laptop, PC, iPad, iPhone, Smartphone, Protect Your Visual Privacy (Panda-Black)</t>
+  </si>
+  <si>
+    <t>6
+.</t>
+  </si>
+  <si>
+    <t>Masione Webcam Full 1080p HD Webcam Streaming Computer Camera with 120-Degree Wide View Angle, with Microphone, USB PC Webcam for Video Calling Recording Conferencing</t>
+  </si>
+  <si>
+    <t>4.0 out of 5 stars</t>
+  </si>
+  <si>
+    <t>VAFOTON Digital Camera 2.7K 44MP Camera, 2.8" LCD Rechargeable Mini Compact Pocket Camera with 16X Zoom for Adult Seniors Students Kids Beginner</t>
+  </si>
+  <si>
+    <t>63
+.</t>
+  </si>
+  <si>
+    <t>3.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>MATIKOO Full HD 1080P Webcam (30fps),Plug &amp; Play USB Webcam with Built-in Dual Microphone,Facial-Enhancement Technology,Multi-Compatible, for Video Conferencing, Recording, and Streaming</t>
+  </si>
+  <si>
+    <t>2.3 out of 5 stars</t>
+  </si>
+  <si>
+    <t>Canon EOS 850D DSLR Camera w/Canon EF-S 18-55mm F/4-5.6 is STM Lens + Pixibytes Pro Bundle</t>
+  </si>
+  <si>
+    <t>855
+.</t>
   </si>
 </sst>
 </file>
@@ -529,186 +535,189 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -719,29 +728,26 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
